--- a/Dataset/Authors/CARM_inc.xlsx
+++ b/Dataset/Authors/CARM_inc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Vetus_Archivum_Oniga\Auctores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF54DBA-D6D0-4C3E-8C2D-FCDE10FAF9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDF66DF-7F36-4D0B-BF6E-BCD3F8406ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{09E7F294-E3BE-4A28-8D6C-CE5F6A8D5732}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Occurrences</t>
   </si>
   <si>
-    <t>Carmina aut carminum fragmenta adespota (praeter scaenica)</t>
-  </si>
-  <si>
     <t>saxifragus</t>
   </si>
   <si>
@@ -57,7 +54,10 @@
     <t>CARM. inc.</t>
   </si>
   <si>
-    <t>Incertus auctor</t>
+    <t>Carmina aut carminum fragmenta adespota praeter scaenica (= CIC. de orat. 3, 167)</t>
+  </si>
+  <si>
+    <t>Auctor ignotus</t>
   </si>
 </sst>
 </file>
@@ -491,19 +491,19 @@
     </row>
     <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -523,7 +523,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
